--- a/RAG_LLM/giskard_failures.xlsx
+++ b/RAG_LLM/giskard_failures.xlsx
@@ -1,37 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>reference_answer</t>
+  </si>
+  <si>
+    <t>reference_context</t>
+  </si>
+  <si>
+    <t>conversation_history</t>
+  </si>
+  <si>
+    <t>metadata</t>
+  </si>
+  <si>
+    <t>agent_answer</t>
+  </si>
+  <si>
+    <t>correctness</t>
+  </si>
+  <si>
+    <t>correctness_reason</t>
+  </si>
+  <si>
+    <t>Are there any contraindications for using ATRIPLA in patients with moderate or severe renal impairment?</t>
+  </si>
+  <si>
+    <t>The active ingredients in ATRIPLA are efavirenz, emtricitabine, and tenofovir disoproxil fumarate.</t>
+  </si>
+  <si>
+    <t>Document 176: Medicines are sometimes prescribed for purposes other than those listed in a Patient
+Information leaflet. Do not use ATRIPLA for a condition for which it was not prescribed.
+Do not give ATRIPLA to other people, even if they have the same symptoms that you
+have. It may harm them. You can ask your healthcare provider or pharmacist for
+information about ATRIPLA that is written for health professionals.
+What are the ingredients of ATRIPLA?
+Active Ingredients:
+ efavirenz, emtricitabine, and tenofovir disoproxil fumarate 
+Inactive Ingredients:
+ croscarmellose sodium, hydroxypropyl cellulose, magnesium
+sterate, microcrystalline cellulose, and sodium lauryl sulfate. The film coating contains
+polyethylene glycol, polyvinyl alcohol, talc, and titanium dioxide.
+Manufactured and distributed by: Gilead Sciences, Inc. Foster City, CA 94404
+ATRIPLA, EMTRIVA, TRUVADA, and VIREAD are trademarks of Gilead Sciences, Inc., or</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>{'question_type': 'distracting element', 'seed_document_id': 176, 'distracting_context': 'disease or other drug therapy.\n8.6 Renal Impairment\nBecause ATRIPLA is a fixed-dose combination, and cannot be dose adjusted, it is not\nrecommended in patients with moderate or severe renal impairment (estimated\ncreatinine clearance below 50 mL/min) \n[see \nDosage and Administration (2.3)\n, \nWarnings\nand Precautions (5.7)\n].', 'topic': 'HIV Treatment'}</t>
+  </si>
+  <si>
+    <t>Yes, there are contraindications for using ATRIPLA in patients with moderate or severe renal impairment. According to the document, ATRIPLA is not recommended in patients with moderate or severe renal impairment (estimated creatinine clearance below 50 mL/min) because it is a fixed-dose combination and cannot be dose-adjusted [see Dosage and Administration (2.3), Warnings and Precautions (5.7)].</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>The agent provided information about contraindications for using ATRIPLA in patients with renal impairment, but the reference answer was about the active ingredients in ATRIPLA.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +114,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="4">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -141,10 +162,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -182,69 +203,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -268,54 +291,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -325,7 +347,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -334,7 +356,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -343,7 +365,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -351,10 +373,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -383,7 +405,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -396,13 +418,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -420,57 +441,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>question</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>reference_answer</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>reference_context</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>conversation_history</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>metadata</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>agent_answer</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>correctness</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="163.5">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>